--- a/Planilhas/trabalho SEXO NACIONAL.xlsx
+++ b/Planilhas/trabalho SEXO NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -506,8 +506,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>74346</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74346</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -522,17 +524,25 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>55206</v>
-      </c>
-      <c r="I2" t="n">
-        <v>51781</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3425</v>
-      </c>
-      <c r="K2" t="n">
-        <v>19140</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>55206</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>51781</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3425</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>19140</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -551,8 +561,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>74623</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74623</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -567,17 +579,25 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>55767</v>
-      </c>
-      <c r="I3" t="n">
-        <v>52345</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3422</v>
-      </c>
-      <c r="K3" t="n">
-        <v>18856</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>55767</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>52345</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3422</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>18856</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -596,8 +616,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>74900</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>74900</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -612,17 +634,25 @@
       <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>55824</v>
-      </c>
-      <c r="I4" t="n">
-        <v>52605</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3220</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19076</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>55824</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>52605</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>19076</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -641,8 +671,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>75174</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75174</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -657,17 +689,25 @@
       <c r="G5" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>56027</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52823</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3205</v>
-      </c>
-      <c r="K5" t="n">
-        <v>19147</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>56027</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>52823</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3205</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>19147</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -686,8 +726,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>75449</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75449</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -702,17 +744,25 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
-        <v>56086</v>
-      </c>
-      <c r="I6" t="n">
-        <v>52447</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3639</v>
-      </c>
-      <c r="K6" t="n">
-        <v>19363</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>56086</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>52447</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3639</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>19363</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -731,8 +781,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>75719</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>75719</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -747,17 +799,25 @@
       <c r="G7" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>56421</v>
-      </c>
-      <c r="I7" t="n">
-        <v>53017</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3404</v>
-      </c>
-      <c r="K7" t="n">
-        <v>19298</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>56421</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>53017</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3404</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>19298</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -776,8 +836,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>75986</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>75986</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -792,17 +854,25 @@
       <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
-        <v>56504</v>
-      </c>
-      <c r="I8" t="n">
-        <v>53297</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3207</v>
-      </c>
-      <c r="K8" t="n">
-        <v>19482</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>56504</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>53297</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>19482</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -821,8 +891,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>76246</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>76246</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -837,17 +909,25 @@
       <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="n">
-        <v>56603</v>
-      </c>
-      <c r="I9" t="n">
-        <v>53713</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2891</v>
-      </c>
-      <c r="K9" t="n">
-        <v>19642</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>56603</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>53713</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2891</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>19642</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -866,8 +946,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>76505</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>76505</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -882,17 +964,25 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
-        <v>56570</v>
-      </c>
-      <c r="I10" t="n">
-        <v>53224</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3346</v>
-      </c>
-      <c r="K10" t="n">
-        <v>19935</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>56570</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>53224</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>19935</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -911,8 +1001,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>76761</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>76761</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -927,17 +1019,25 @@
       <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="H11" t="n">
-        <v>56864</v>
-      </c>
-      <c r="I11" t="n">
-        <v>53556</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3308</v>
-      </c>
-      <c r="K11" t="n">
-        <v>19897</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>56864</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>53556</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>19897</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -956,8 +1056,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>77014</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>77014</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -972,17 +1074,25 @@
       <c r="G12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="n">
-        <v>56967</v>
-      </c>
-      <c r="I12" t="n">
-        <v>53730</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3237</v>
-      </c>
-      <c r="K12" t="n">
-        <v>20047</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>56967</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>53730</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>3237</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>20047</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1001,8 +1111,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>77258</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>77258</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1017,17 +1129,25 @@
       <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="n">
-        <v>57069</v>
-      </c>
-      <c r="I13" t="n">
-        <v>53878</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3191</v>
-      </c>
-      <c r="K13" t="n">
-        <v>20190</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>57069</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>53878</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>3191</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>20190</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1046,8 +1166,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>77503</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>77503</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1062,17 +1184,25 @@
       <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>57224</v>
-      </c>
-      <c r="I14" t="n">
-        <v>53416</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3808</v>
-      </c>
-      <c r="K14" t="n">
-        <v>20278</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>57224</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>53416</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>20278</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1091,8 +1221,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>77744</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>77744</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1107,17 +1239,25 @@
       <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
-        <v>57433</v>
-      </c>
-      <c r="I15" t="n">
-        <v>53308</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4126</v>
-      </c>
-      <c r="K15" t="n">
-        <v>20311</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>57433</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>53308</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>20311</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1136,8 +1276,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>77983</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>77983</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1152,17 +1294,25 @@
       <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>57714</v>
-      </c>
-      <c r="I16" t="n">
-        <v>53230</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4484</v>
-      </c>
-      <c r="K16" t="n">
-        <v>20269</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>57714</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>53230</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>20269</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1181,8 +1331,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>78215</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>78215</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1197,17 +1349,25 @@
       <c r="G17" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>58015</v>
-      </c>
-      <c r="I17" t="n">
-        <v>53524</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4491</v>
-      </c>
-      <c r="K17" t="n">
-        <v>20201</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>58015</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>53524</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>20201</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1226,8 +1386,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>78448</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>78448</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1242,17 +1404,25 @@
       <c r="G18" t="n">
         <v>1</v>
       </c>
-      <c r="H18" t="n">
-        <v>58276</v>
-      </c>
-      <c r="I18" t="n">
-        <v>52743</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5534</v>
-      </c>
-      <c r="K18" t="n">
-        <v>20171</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>58276</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>52743</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>5534</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>20171</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1271,8 +1441,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>78678</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>78678</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1287,17 +1459,25 @@
       <c r="G19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>58254</v>
-      </c>
-      <c r="I19" t="n">
-        <v>52504</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5750</v>
-      </c>
-      <c r="K19" t="n">
-        <v>20424</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>58254</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>52504</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>5750</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>20424</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1316,8 +1496,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>78907</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>78907</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1332,17 +1514,25 @@
       <c r="G20" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
-        <v>57977</v>
-      </c>
-      <c r="I20" t="n">
-        <v>51915</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6062</v>
-      </c>
-      <c r="K20" t="n">
-        <v>20931</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>57977</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>51915</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>6062</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>20931</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1361,8 +1551,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>79134</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>79134</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1377,17 +1569,25 @@
       <c r="G21" t="n">
         <v>4</v>
       </c>
-      <c r="H21" t="n">
-        <v>58213</v>
-      </c>
-      <c r="I21" t="n">
-        <v>52006</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6207</v>
-      </c>
-      <c r="K21" t="n">
-        <v>20921</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>58213</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>52006</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>6207</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>20921</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1406,8 +1606,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>79361</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>79361</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1422,17 +1624,25 @@
       <c r="G22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="n">
-        <v>58350</v>
-      </c>
-      <c r="I22" t="n">
-        <v>51294</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7057</v>
-      </c>
-      <c r="K22" t="n">
-        <v>21010</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>58350</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>51294</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>7057</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>21010</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1451,8 +1661,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>79585</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>79585</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1467,17 +1679,25 @@
       <c r="G23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="n">
-        <v>58494</v>
-      </c>
-      <c r="I23" t="n">
-        <v>51790</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6704</v>
-      </c>
-      <c r="K23" t="n">
-        <v>21091</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>58494</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>51790</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>6704</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>21091</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1496,8 +1716,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>79806</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>79806</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1512,17 +1734,25 @@
       <c r="G24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="n">
-        <v>58768</v>
-      </c>
-      <c r="I24" t="n">
-        <v>52323</v>
-      </c>
-      <c r="J24" t="n">
-        <v>6444</v>
-      </c>
-      <c r="K24" t="n">
-        <v>21038</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>58768</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>52323</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>6444</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>21038</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1541,8 +1771,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>80021</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>80021</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1557,17 +1789,25 @@
       <c r="G25" t="n">
         <v>4</v>
       </c>
-      <c r="H25" t="n">
-        <v>58976</v>
-      </c>
-      <c r="I25" t="n">
-        <v>52815</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6161</v>
-      </c>
-      <c r="K25" t="n">
-        <v>21045</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>58976</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>52815</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>6161</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>21045</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1586,8 +1826,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>80237</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>80237</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1602,17 +1844,25 @@
       <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="n">
-        <v>59025</v>
-      </c>
-      <c r="I26" t="n">
-        <v>52189</v>
-      </c>
-      <c r="J26" t="n">
-        <v>6836</v>
-      </c>
-      <c r="K26" t="n">
-        <v>21212</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>59025</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>52189</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>6836</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>21212</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1631,8 +1881,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>80450</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>80450</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1647,17 +1899,25 @@
       <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>58849</v>
-      </c>
-      <c r="I27" t="n">
-        <v>52371</v>
-      </c>
-      <c r="J27" t="n">
-        <v>6478</v>
-      </c>
-      <c r="K27" t="n">
-        <v>21600</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>58849</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>52371</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>6478</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>21600</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1676,8 +1936,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>80664</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>80664</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1692,17 +1954,25 @@
       <c r="G28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>59358</v>
-      </c>
-      <c r="I28" t="n">
-        <v>53156</v>
-      </c>
-      <c r="J28" t="n">
-        <v>6201</v>
-      </c>
-      <c r="K28" t="n">
-        <v>21306</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>59358</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>53156</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>6201</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>21306</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1721,8 +1991,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>80877</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>80877</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1737,17 +2009,25 @@
       <c r="G29" t="n">
         <v>4</v>
       </c>
-      <c r="H29" t="n">
-        <v>59365</v>
-      </c>
-      <c r="I29" t="n">
-        <v>53396</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5969</v>
-      </c>
-      <c r="K29" t="n">
-        <v>21511</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>59365</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>53396</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>5969</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>21511</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1766,8 +2046,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>81089</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>81089</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1782,17 +2064,25 @@
       <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>59554</v>
-      </c>
-      <c r="I30" t="n">
-        <v>53060</v>
-      </c>
-      <c r="J30" t="n">
-        <v>6494</v>
-      </c>
-      <c r="K30" t="n">
-        <v>21535</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>59554</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>53060</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>6494</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>21535</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1811,8 +2101,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>81299</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>81299</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1827,17 +2119,25 @@
       <c r="G31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="n">
-        <v>59813</v>
-      </c>
-      <c r="I31" t="n">
-        <v>53650</v>
-      </c>
-      <c r="J31" t="n">
-        <v>6163</v>
-      </c>
-      <c r="K31" t="n">
-        <v>21486</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>59813</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>53650</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>6163</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>21486</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1856,8 +2156,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>81508</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>81508</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1872,17 +2174,25 @@
       <c r="G32" t="n">
         <v>3</v>
       </c>
-      <c r="H32" t="n">
-        <v>60031</v>
-      </c>
-      <c r="I32" t="n">
-        <v>54040</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5990</v>
-      </c>
-      <c r="K32" t="n">
-        <v>21477</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>60031</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>54040</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>5990</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>21477</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1901,8 +2211,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>81714</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>81714</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1917,17 +2229,25 @@
       <c r="G33" t="n">
         <v>4</v>
       </c>
-      <c r="H33" t="n">
-        <v>60007</v>
-      </c>
-      <c r="I33" t="n">
-        <v>54468</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5539</v>
-      </c>
-      <c r="K33" t="n">
-        <v>21707</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>60007</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>54468</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>5539</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>21707</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1946,8 +2266,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>81920</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>81920</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1962,17 +2284,25 @@
       <c r="G34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="n">
-        <v>59571</v>
-      </c>
-      <c r="I34" t="n">
-        <v>53394</v>
-      </c>
-      <c r="J34" t="n">
-        <v>6177</v>
-      </c>
-      <c r="K34" t="n">
-        <v>22349</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>59571</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>53394</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>6177</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>22349</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1991,8 +2321,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>82123</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>82123</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2007,17 +2339,25 @@
       <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="n">
-        <v>55642</v>
-      </c>
-      <c r="I35" t="n">
-        <v>48870</v>
-      </c>
-      <c r="J35" t="n">
-        <v>6772</v>
-      </c>
-      <c r="K35" t="n">
-        <v>26481</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>55642</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>48870</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>6772</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>26481</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2036,8 +2376,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>82323</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>82323</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2052,17 +2394,25 @@
       <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="n">
-        <v>56438</v>
-      </c>
-      <c r="I36" t="n">
-        <v>49139</v>
-      </c>
-      <c r="J36" t="n">
-        <v>7299</v>
-      </c>
-      <c r="K36" t="n">
-        <v>25885</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>56438</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>49139</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>7299</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>25885</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2081,8 +2431,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>82517</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>82517</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2097,17 +2449,25 @@
       <c r="G37" t="n">
         <v>4</v>
       </c>
-      <c r="H37" t="n">
-        <v>57830</v>
-      </c>
-      <c r="I37" t="n">
-        <v>50947</v>
-      </c>
-      <c r="J37" t="n">
-        <v>6883</v>
-      </c>
-      <c r="K37" t="n">
-        <v>24687</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>57830</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>50947</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>6883</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>24687</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2126,8 +2486,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>82711</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>82711</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2142,17 +2504,25 @@
       <c r="G38" t="n">
         <v>1</v>
       </c>
-      <c r="H38" t="n">
-        <v>58164</v>
-      </c>
-      <c r="I38" t="n">
-        <v>51097</v>
-      </c>
-      <c r="J38" t="n">
-        <v>7067</v>
-      </c>
-      <c r="K38" t="n">
-        <v>24547</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>58164</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>51097</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>7067</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>24547</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2171,8 +2541,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>82902</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>82902</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2187,17 +2559,25 @@
       <c r="G39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="n">
-        <v>59104</v>
-      </c>
-      <c r="I39" t="n">
-        <v>52256</v>
-      </c>
-      <c r="J39" t="n">
-        <v>6848</v>
-      </c>
-      <c r="K39" t="n">
-        <v>23798</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>59104</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>52256</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>6848</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>23798</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2216,8 +2596,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>83093</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>83093</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2232,17 +2614,25 @@
       <c r="G40" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
-        <v>60032</v>
-      </c>
-      <c r="I40" t="n">
-        <v>53951</v>
-      </c>
-      <c r="J40" t="n">
-        <v>6081</v>
-      </c>
-      <c r="K40" t="n">
-        <v>23061</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>60032</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>53951</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>6081</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>23061</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2261,8 +2651,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>83282</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>83282</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2277,17 +2669,25 @@
       <c r="G41" t="n">
         <v>4</v>
       </c>
-      <c r="H41" t="n">
-        <v>60528</v>
-      </c>
-      <c r="I41" t="n">
-        <v>55065</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5463</v>
-      </c>
-      <c r="K41" t="n">
-        <v>22753</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>60528</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>55065</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>5463</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>22753</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2306,8 +2706,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>83470</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>83470</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2322,17 +2724,25 @@
       <c r="G42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
-        <v>60336</v>
-      </c>
-      <c r="I42" t="n">
-        <v>54831</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5505</v>
-      </c>
-      <c r="K42" t="n">
-        <v>23134</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>60336</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>54831</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>5505</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>23134</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2351,8 +2761,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>83655</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>83655</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2367,17 +2779,25 @@
       <c r="G43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="n">
-        <v>60744</v>
-      </c>
-      <c r="I43" t="n">
-        <v>56167</v>
-      </c>
-      <c r="J43" t="n">
-        <v>4577</v>
-      </c>
-      <c r="K43" t="n">
-        <v>22911</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>60744</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>56167</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>22911</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2396,8 +2816,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>83841</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>83841</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2412,17 +2834,25 @@
       <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="n">
-        <v>60873</v>
-      </c>
-      <c r="I44" t="n">
-        <v>56665</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4208</v>
-      </c>
-      <c r="K44" t="n">
-        <v>22968</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>60873</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>56665</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>4208</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>22968</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2441,8 +2871,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>84025</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>84025</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2457,17 +2889,25 @@
       <c r="G45" t="n">
         <v>4</v>
       </c>
-      <c r="H45" t="n">
-        <v>60604</v>
-      </c>
-      <c r="I45" t="n">
-        <v>56694</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3910</v>
-      </c>
-      <c r="K45" t="n">
-        <v>23421</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>60604</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>56694</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>3910</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>23421</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2486,8 +2926,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>84207</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>84207</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2502,17 +2944,25 @@
       <c r="G46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="n">
-        <v>60304</v>
-      </c>
-      <c r="I46" t="n">
-        <v>55937</v>
-      </c>
-      <c r="J46" t="n">
-        <v>4367</v>
-      </c>
-      <c r="K46" t="n">
-        <v>23904</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>60304</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>55937</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>4367</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>23904</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2531,8 +2981,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>84387</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>84387</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2547,17 +2999,25 @@
       <c r="G47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="n">
-        <v>60528</v>
-      </c>
-      <c r="I47" t="n">
-        <v>56379</v>
-      </c>
-      <c r="J47" t="n">
-        <v>4149</v>
-      </c>
-      <c r="K47" t="n">
-        <v>23859</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>60528</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>56379</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>23859</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2576,8 +3036,10 @@
           <t>Homens</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>84566</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>84566</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2592,17 +3054,25 @@
       <c r="G48" t="n">
         <v>3</v>
       </c>
-      <c r="H48" t="n">
-        <v>60885</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56981</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3904</v>
-      </c>
-      <c r="K48" t="n">
-        <v>23681</v>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>60885</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>56981</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>3904</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>23681</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2621,8 +3091,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>79255</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>79255</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2637,17 +3109,25 @@
       <c r="G49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="n">
-        <v>40459</v>
-      </c>
-      <c r="I49" t="n">
-        <v>36230</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4228</v>
-      </c>
-      <c r="K49" t="n">
-        <v>38797</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>40459</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>36230</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>38797</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2666,8 +3146,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>79557</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>79557</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2682,17 +3164,25 @@
       <c r="G50" t="n">
         <v>2</v>
       </c>
-      <c r="H50" t="n">
-        <v>41244</v>
-      </c>
-      <c r="I50" t="n">
-        <v>37302</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3942</v>
-      </c>
-      <c r="K50" t="n">
-        <v>38313</v>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>41244</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>37302</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>38313</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2711,8 +3201,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>79857</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>79857</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2727,17 +3219,25 @@
       <c r="G51" t="n">
         <v>3</v>
       </c>
-      <c r="H51" t="n">
-        <v>41437</v>
-      </c>
-      <c r="I51" t="n">
-        <v>37715</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3722</v>
-      </c>
-      <c r="K51" t="n">
-        <v>38420</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>41437</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>37715</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>38420</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2756,8 +3256,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>80155</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>80155</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2772,17 +3274,25 @@
       <c r="G52" t="n">
         <v>4</v>
       </c>
-      <c r="H52" t="n">
-        <v>41295</v>
-      </c>
-      <c r="I52" t="n">
-        <v>37770</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3525</v>
-      </c>
-      <c r="K52" t="n">
-        <v>38860</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>41295</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>37770</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>38860</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2801,8 +3311,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>80453</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>80453</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2817,17 +3329,25 @@
       <c r="G53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="n">
-        <v>41468</v>
-      </c>
-      <c r="I53" t="n">
-        <v>37241</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4227</v>
-      </c>
-      <c r="K53" t="n">
-        <v>38985</v>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>41468</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>37241</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>38985</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2846,8 +3366,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>80747</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>80747</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2862,17 +3384,25 @@
       <c r="G54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="n">
-        <v>41821</v>
-      </c>
-      <c r="I54" t="n">
-        <v>37832</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3988</v>
-      </c>
-      <c r="K54" t="n">
-        <v>38926</v>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>41821</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>37832</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>38926</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2891,8 +3421,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>81037</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>81037</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2907,17 +3439,25 @@
       <c r="G55" t="n">
         <v>3</v>
       </c>
-      <c r="H55" t="n">
-        <v>41850</v>
-      </c>
-      <c r="I55" t="n">
-        <v>38141</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3709</v>
-      </c>
-      <c r="K55" t="n">
-        <v>39187</v>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>41850</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>38141</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>39187</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2936,8 +3476,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>81319</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>81319</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2952,17 +3494,25 @@
       <c r="G56" t="n">
         <v>4</v>
       </c>
-      <c r="H56" t="n">
-        <v>41717</v>
-      </c>
-      <c r="I56" t="n">
-        <v>38457</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3260</v>
-      </c>
-      <c r="K56" t="n">
-        <v>39602</v>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>41717</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>38457</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>39602</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2981,8 +3531,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>81601</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>81601</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2997,17 +3549,25 @@
       <c r="G57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="n">
-        <v>42027</v>
-      </c>
-      <c r="I57" t="n">
-        <v>38232</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3795</v>
-      </c>
-      <c r="K57" t="n">
-        <v>39574</v>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>42027</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>38232</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>39574</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -3026,8 +3586,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>81880</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>81880</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3042,17 +3604,25 @@
       <c r="G58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="n">
-        <v>42114</v>
-      </c>
-      <c r="I58" t="n">
-        <v>38562</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3553</v>
-      </c>
-      <c r="K58" t="n">
-        <v>39765</v>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>42114</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>38562</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>3553</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>39765</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -3071,8 +3641,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>82154</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>82154</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3087,17 +3659,25 @@
       <c r="G59" t="n">
         <v>3</v>
       </c>
-      <c r="H59" t="n">
-        <v>42252</v>
-      </c>
-      <c r="I59" t="n">
-        <v>38677</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3575</v>
-      </c>
-      <c r="K59" t="n">
-        <v>39902</v>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>42252</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>38677</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>3575</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>39902</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -3116,8 +3696,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>82420</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>82420</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3132,17 +3714,25 @@
       <c r="G60" t="n">
         <v>4</v>
       </c>
-      <c r="H60" t="n">
-        <v>42448</v>
-      </c>
-      <c r="I60" t="n">
-        <v>39084</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3364</v>
-      </c>
-      <c r="K60" t="n">
-        <v>39973</v>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>42448</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>39084</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>3364</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>39973</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -3161,8 +3751,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>82686</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>82686</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3177,17 +3769,25 @@
       <c r="G61" t="n">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>42782</v>
-      </c>
-      <c r="I61" t="n">
-        <v>38545</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4237</v>
-      </c>
-      <c r="K61" t="n">
-        <v>39904</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>42782</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>38545</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>39904</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -3206,8 +3806,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>82949</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>82949</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3222,17 +3824,25 @@
       <c r="G62" t="n">
         <v>2</v>
       </c>
-      <c r="H62" t="n">
-        <v>43313</v>
-      </c>
-      <c r="I62" t="n">
-        <v>38941</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4372</v>
-      </c>
-      <c r="K62" t="n">
-        <v>39636</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>43313</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>38941</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4372</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>39636</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3251,8 +3861,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>83209</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>83209</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3267,17 +3879,25 @@
       <c r="G63" t="n">
         <v>3</v>
       </c>
-      <c r="H63" t="n">
-        <v>43640</v>
-      </c>
-      <c r="I63" t="n">
-        <v>38971</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4669</v>
-      </c>
-      <c r="K63" t="n">
-        <v>39570</v>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>43640</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>38971</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>39570</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3296,8 +3916,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>83464</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>83464</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3312,17 +3934,25 @@
       <c r="G64" t="n">
         <v>4</v>
       </c>
-      <c r="H64" t="n">
-        <v>43573</v>
-      </c>
-      <c r="I64" t="n">
-        <v>38842</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4731</v>
-      </c>
-      <c r="K64" t="n">
-        <v>39891</v>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>43573</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>38842</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>4731</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>39891</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3341,8 +3971,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>83718</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>83718</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3357,17 +3989,25 @@
       <c r="G65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="n">
-        <v>43713</v>
-      </c>
-      <c r="I65" t="n">
-        <v>37966</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5748</v>
-      </c>
-      <c r="K65" t="n">
-        <v>40005</v>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>43713</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>37966</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>5748</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>40005</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3386,8 +4026,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>83970</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>83970</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3402,17 +4044,25 @@
       <c r="G66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="n">
-        <v>44135</v>
-      </c>
-      <c r="I66" t="n">
-        <v>38169</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5966</v>
-      </c>
-      <c r="K66" t="n">
-        <v>39835</v>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>44135</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>38169</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>5966</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>39835</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3431,8 +4081,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>84221</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>84221</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3447,17 +4099,25 @@
       <c r="G67" t="n">
         <v>3</v>
       </c>
-      <c r="H67" t="n">
-        <v>44001</v>
-      </c>
-      <c r="I67" t="n">
-        <v>37907</v>
-      </c>
-      <c r="J67" t="n">
-        <v>6094</v>
-      </c>
-      <c r="K67" t="n">
-        <v>40220</v>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>44001</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>37907</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>6094</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>40220</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -3476,8 +4136,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>84469</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>84469</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3492,17 +4154,25 @@
       <c r="G68" t="n">
         <v>4</v>
       </c>
-      <c r="H68" t="n">
-        <v>44437</v>
-      </c>
-      <c r="I68" t="n">
-        <v>38168</v>
-      </c>
-      <c r="J68" t="n">
-        <v>6269</v>
-      </c>
-      <c r="K68" t="n">
-        <v>40032</v>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>44437</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>38168</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>6269</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>40032</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -3521,8 +4191,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>84716</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>84716</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3537,17 +4209,25 @@
       <c r="G69" t="n">
         <v>1</v>
       </c>
-      <c r="H69" t="n">
-        <v>44801</v>
-      </c>
-      <c r="I69" t="n">
-        <v>37552</v>
-      </c>
-      <c r="J69" t="n">
-        <v>7248</v>
-      </c>
-      <c r="K69" t="n">
-        <v>39915</v>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>44801</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>37552</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>39915</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3566,8 +4246,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>84961</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>84961</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3582,17 +4264,25 @@
       <c r="G70" t="n">
         <v>2</v>
       </c>
-      <c r="H70" t="n">
-        <v>45297</v>
-      </c>
-      <c r="I70" t="n">
-        <v>38403</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6894</v>
-      </c>
-      <c r="K70" t="n">
-        <v>39663</v>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>45297</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>38403</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>6894</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>39663</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3611,8 +4301,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>85202</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>85202</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3627,17 +4319,25 @@
       <c r="G71" t="n">
         <v>3</v>
       </c>
-      <c r="H71" t="n">
-        <v>45568</v>
-      </c>
-      <c r="I71" t="n">
-        <v>38945</v>
-      </c>
-      <c r="J71" t="n">
-        <v>6623</v>
-      </c>
-      <c r="K71" t="n">
-        <v>39634</v>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>45568</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>38945</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>6623</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>39634</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3656,8 +4356,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>85437</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>85437</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3672,17 +4374,25 @@
       <c r="G72" t="n">
         <v>4</v>
       </c>
-      <c r="H72" t="n">
-        <v>45705</v>
-      </c>
-      <c r="I72" t="n">
-        <v>39414</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6292</v>
-      </c>
-      <c r="K72" t="n">
-        <v>39732</v>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>45705</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>39414</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>39732</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3701,8 +4411,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>85672</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>85672</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3717,17 +4429,25 @@
       <c r="G73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="n">
-        <v>45726</v>
-      </c>
-      <c r="I73" t="n">
-        <v>38690</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7036</v>
-      </c>
-      <c r="K73" t="n">
-        <v>39946</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>45726</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>38690</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>7036</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>39946</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3746,8 +4466,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>85904</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>85904</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3762,17 +4484,25 @@
       <c r="G74" t="n">
         <v>2</v>
       </c>
-      <c r="H74" t="n">
-        <v>45761</v>
-      </c>
-      <c r="I74" t="n">
-        <v>39090</v>
-      </c>
-      <c r="J74" t="n">
-        <v>6670</v>
-      </c>
-      <c r="K74" t="n">
-        <v>40143</v>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>45761</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>39090</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>6670</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>40143</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3791,8 +4521,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>86137</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>86137</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3807,17 +4539,25 @@
       <c r="G75" t="n">
         <v>3</v>
       </c>
-      <c r="H75" t="n">
-        <v>46266</v>
-      </c>
-      <c r="I75" t="n">
-        <v>39773</v>
-      </c>
-      <c r="J75" t="n">
-        <v>6493</v>
-      </c>
-      <c r="K75" t="n">
-        <v>39871</v>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>46266</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>39773</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>6493</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>39871</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3836,8 +4576,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>86369</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>86369</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3852,17 +4594,25 @@
       <c r="G76" t="n">
         <v>4</v>
       </c>
-      <c r="H76" t="n">
-        <v>46582</v>
-      </c>
-      <c r="I76" t="n">
-        <v>40138</v>
-      </c>
-      <c r="J76" t="n">
-        <v>6444</v>
-      </c>
-      <c r="K76" t="n">
-        <v>39787</v>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>46582</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>40138</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>6444</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>39787</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3881,8 +4631,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>86601</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>86601</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3897,17 +4649,25 @@
       <c r="G77" t="n">
         <v>1</v>
       </c>
-      <c r="H77" t="n">
-        <v>46719</v>
-      </c>
-      <c r="I77" t="n">
-        <v>39562</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7157</v>
-      </c>
-      <c r="K77" t="n">
-        <v>39882</v>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>46719</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>39562</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>39882</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3926,8 +4686,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>86829</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>86829</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3942,17 +4704,25 @@
       <c r="G78" t="n">
         <v>2</v>
       </c>
-      <c r="H78" t="n">
-        <v>47357</v>
-      </c>
-      <c r="I78" t="n">
-        <v>40509</v>
-      </c>
-      <c r="J78" t="n">
-        <v>6848</v>
-      </c>
-      <c r="K78" t="n">
-        <v>39472</v>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>47357</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>40509</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>6848</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>39472</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3971,8 +4741,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>87057</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>87057</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3987,17 +4759,25 @@
       <c r="G79" t="n">
         <v>3</v>
       </c>
-      <c r="H79" t="n">
-        <v>47504</v>
-      </c>
-      <c r="I79" t="n">
-        <v>40696</v>
-      </c>
-      <c r="J79" t="n">
-        <v>6808</v>
-      </c>
-      <c r="K79" t="n">
-        <v>39553</v>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>47504</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>40696</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>6808</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>39553</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -4016,8 +4796,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>87282</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>87282</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4032,17 +4814,25 @@
       <c r="G80" t="n">
         <v>4</v>
       </c>
-      <c r="H80" t="n">
-        <v>47411</v>
-      </c>
-      <c r="I80" t="n">
-        <v>41047</v>
-      </c>
-      <c r="J80" t="n">
-        <v>6363</v>
-      </c>
-      <c r="K80" t="n">
-        <v>39872</v>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>47411</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>41047</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>6363</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>39872</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -4061,8 +4851,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>87507</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>87507</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4077,17 +4869,25 @@
       <c r="G81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="n">
-        <v>46692</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39721</v>
-      </c>
-      <c r="J81" t="n">
-        <v>6971</v>
-      </c>
-      <c r="K81" t="n">
-        <v>40815</v>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>46692</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>39721</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>40815</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -4106,8 +4906,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>87729</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>87729</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4122,17 +4924,25 @@
       <c r="G82" t="n">
         <v>2</v>
       </c>
-      <c r="H82" t="n">
-        <v>41637</v>
-      </c>
-      <c r="I82" t="n">
-        <v>35181</v>
-      </c>
-      <c r="J82" t="n">
-        <v>6456</v>
-      </c>
-      <c r="K82" t="n">
-        <v>46092</v>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>41637</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>35181</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>6456</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>46092</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -4151,8 +4961,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>87948</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>87948</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4167,17 +4979,25 @@
       <c r="G83" t="n">
         <v>3</v>
       </c>
-      <c r="H83" t="n">
-        <v>41599</v>
-      </c>
-      <c r="I83" t="n">
-        <v>34300</v>
-      </c>
-      <c r="J83" t="n">
-        <v>7299</v>
-      </c>
-      <c r="K83" t="n">
-        <v>46349</v>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>41599</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>34300</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>7299</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>46349</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -4196,8 +5016,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>88161</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>88161</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4212,17 +5034,25 @@
       <c r="G84" t="n">
         <v>4</v>
       </c>
-      <c r="H84" t="n">
-        <v>43807</v>
-      </c>
-      <c r="I84" t="n">
-        <v>36279</v>
-      </c>
-      <c r="J84" t="n">
-        <v>7528</v>
-      </c>
-      <c r="K84" t="n">
-        <v>44354</v>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>43807</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>36279</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>7528</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>44354</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -4241,8 +5071,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>88374</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>88374</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4257,17 +5089,25 @@
       <c r="G85" t="n">
         <v>1</v>
       </c>
-      <c r="H85" t="n">
-        <v>44175</v>
-      </c>
-      <c r="I85" t="n">
-        <v>35985</v>
-      </c>
-      <c r="J85" t="n">
-        <v>8190</v>
-      </c>
-      <c r="K85" t="n">
-        <v>44199</v>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>44175</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>35985</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>8190</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>44199</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -4286,8 +5126,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>88583</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>88583</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4302,17 +5144,25 @@
       <c r="G86" t="n">
         <v>2</v>
       </c>
-      <c r="H86" t="n">
-        <v>45112</v>
-      </c>
-      <c r="I86" t="n">
-        <v>37128</v>
-      </c>
-      <c r="J86" t="n">
-        <v>7983</v>
-      </c>
-      <c r="K86" t="n">
-        <v>43472</v>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>45112</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>37128</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>7983</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>43472</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -4331,8 +5181,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>88793</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>88793</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4347,17 +5199,25 @@
       <c r="G87" t="n">
         <v>3</v>
       </c>
-      <c r="H87" t="n">
-        <v>46398</v>
-      </c>
-      <c r="I87" t="n">
-        <v>39026</v>
-      </c>
-      <c r="J87" t="n">
-        <v>7372</v>
-      </c>
-      <c r="K87" t="n">
-        <v>42395</v>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>46398</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>39026</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>7372</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>42395</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4376,8 +5236,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>89001</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>89001</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4392,17 +5254,25 @@
       <c r="G88" t="n">
         <v>4</v>
       </c>
-      <c r="H88" t="n">
-        <v>47230</v>
-      </c>
-      <c r="I88" t="n">
-        <v>40682</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6547</v>
-      </c>
-      <c r="K88" t="n">
-        <v>41772</v>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>47230</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>40682</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>6547</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>41772</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4421,8 +5291,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>89208</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>89208</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4437,17 +5309,25 @@
       <c r="G89" t="n">
         <v>1</v>
       </c>
-      <c r="H89" t="n">
-        <v>46888</v>
-      </c>
-      <c r="I89" t="n">
-        <v>40444</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6444</v>
-      </c>
-      <c r="K89" t="n">
-        <v>42320</v>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>46888</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>40444</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>6444</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>42320</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4466,8 +5346,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>89412</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>89412</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4482,17 +5364,25 @@
       <c r="G90" t="n">
         <v>2</v>
       </c>
-      <c r="H90" t="n">
-        <v>47605</v>
-      </c>
-      <c r="I90" t="n">
-        <v>42102</v>
-      </c>
-      <c r="J90" t="n">
-        <v>5503</v>
-      </c>
-      <c r="K90" t="n">
-        <v>41807</v>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>47605</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>42102</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>5503</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>41807</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -4511,8 +5401,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>89617</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>89617</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4527,17 +5419,25 @@
       <c r="G91" t="n">
         <v>3</v>
       </c>
-      <c r="H91" t="n">
-        <v>47856</v>
-      </c>
-      <c r="I91" t="n">
-        <v>42604</v>
-      </c>
-      <c r="J91" t="n">
-        <v>5252</v>
-      </c>
-      <c r="K91" t="n">
-        <v>41761</v>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>47856</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>42604</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>5252</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>41761</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4556,8 +5456,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>89820</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>89820</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4572,17 +5474,25 @@
       <c r="G92" t="n">
         <v>4</v>
       </c>
-      <c r="H92" t="n">
-        <v>47338</v>
-      </c>
-      <c r="I92" t="n">
-        <v>42676</v>
-      </c>
-      <c r="J92" t="n">
-        <v>4662</v>
-      </c>
-      <c r="K92" t="n">
-        <v>42482</v>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>47338</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>42676</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>4662</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>42482</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -4601,8 +5511,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>90021</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>90021</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4617,17 +5529,25 @@
       <c r="G93" t="n">
         <v>1</v>
       </c>
-      <c r="H93" t="n">
-        <v>46953</v>
-      </c>
-      <c r="I93" t="n">
-        <v>41888</v>
-      </c>
-      <c r="J93" t="n">
-        <v>5065</v>
-      </c>
-      <c r="K93" t="n">
-        <v>43068</v>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>46953</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>41888</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>5065</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>43068</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -4646,8 +5566,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>90220</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>90220</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4662,17 +5584,25 @@
       <c r="G94" t="n">
         <v>2</v>
       </c>
-      <c r="H94" t="n">
-        <v>47029</v>
-      </c>
-      <c r="I94" t="n">
-        <v>42530</v>
-      </c>
-      <c r="J94" t="n">
-        <v>4498</v>
-      </c>
-      <c r="K94" t="n">
-        <v>43191</v>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>47029</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>42530</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>4498</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>43191</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -4691,8 +5621,10 @@
           <t>Mulheres</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>90417</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>90417</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4707,17 +5639,25 @@
       <c r="G95" t="n">
         <v>3</v>
       </c>
-      <c r="H95" t="n">
-        <v>47269</v>
-      </c>
-      <c r="I95" t="n">
-        <v>42857</v>
-      </c>
-      <c r="J95" t="n">
-        <v>4412</v>
-      </c>
-      <c r="K95" t="n">
-        <v>43148</v>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>47269</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>42857</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>4412</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>43148</t>
+        </is>
       </c>
     </row>
   </sheetData>
